--- a/biology/Botanique/Dorotheanthus_bellidiformis/Dorotheanthus_bellidiformis.xlsx
+++ b/biology/Botanique/Dorotheanthus_bellidiformis/Dorotheanthus_bellidiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorotheanthus bellidiformis est une espèce de plantes de la famille des Aizoaceae. C'est une plante succulente tapissante, à larges fleurs aux coloris généralement soutenus et variés. L'espèce est connue des jardiniers sous le nom vernaculaire de ficoïde ou le nom commercial de « tapis magique ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Divers aspects de la plante
@@ -549,15 +563,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois par le botaniste néerlandais Nicolaas Laurens Burman (1734-1793) puis renommée en 1928 par son homologue britannique Nicholas Edward Brown (1849-1934)[1].
-Synonymes
-Selon INPN[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par le botaniste néerlandais Nicolaas Laurens Burman (1734-1793) puis renommée en 1928 par son homologue britannique Nicholas Edward Brown (1849-1934).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorotheanthus_bellidiformis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorotheanthus_bellidiformis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon INPN :
 Dorotheanthus criniflorus (L.f.) Schwantes
-Mesembryanthemum bellidiforme Burm.f.
-Liste des sous-espèces
-Selon Tropicos                                           (13 avril 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Mesembryanthemum bellidiforme Burm.f.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dorotheanthus_bellidiformis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorotheanthus_bellidiformis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (13 avril 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Dorotheanthus bellidiformis subsp. bellidiformis N.E. Br.
 sous-espèce Dorotheanthus bellidiformis subsp. hestermalensis Ihlenf. &amp; Struck</t>
         </is>
